--- a/EssilorLuxottica Projects/LUX - 7.0 - Report SAP Bank Files/Data/Input/Lab_Report_Template.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.0 - Report SAP Bank Files/Data/Input/Lab_Report_Template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAADF98C-6159-483B-9D2C-FB275CCF423C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="345" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,33 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Lab Name</t>
-  </si>
-  <si>
-    <t>Org Name</t>
-  </si>
-  <si>
-    <t>Report Type</t>
-  </si>
-  <si>
-    <t>Download Name</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Status</t>
   </si>
   <si>
     <t>Note</t>
   </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,61 +428,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H51:H1048576">
+  <conditionalFormatting sqref="E51:E1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Failure Message">
-      <formula>NOT(ISERROR(SEARCH("Failure Message",H51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failure Message",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Successful">
-      <formula>NOT(ISERROR(SEARCH("Successful",F1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Successful",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
